--- a/Proto77-Map/map/조선 프로빈스 네임.xlsx
+++ b/Proto77-Map/map/조선 프로빈스 네임.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>경기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +232,150 @@
   </si>
   <si>
     <t>사군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122;48;97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255;0;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135;88;86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83;255;71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255;61;80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255;125;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158;186;44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209;255;135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136;210;148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104;92;255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>233;94;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161;127;255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160;62;35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188;200;56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>233;98;128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58;232;87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195;44;140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138;58;45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134;53;105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105;96;64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130;65;80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163;48;26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217;164;164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131;164;164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47;60;163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81;148;126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232;90;192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231;184;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145;81;35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105;255;30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>147;119;39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255;94;76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162;64;128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>241;255;48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104;88;128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209;139;185</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +410,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -299,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +472,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -638,13 +800,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F14" sqref="A13:F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
@@ -678,64 +844,64 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6">
-        <v>4</v>
+      <c r="A6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -746,16 +912,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -765,191 +931,311 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12">
-        <v>2</v>
+      <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H14">
         <v>6</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="H16">
-        <v>4</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="H17">
-        <f>SUM(H2:H16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H25">
+        <f>SUM(H2:H23)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
